--- a/src/covid19.xlsx
+++ b/src/covid19.xlsx
@@ -479,80 +479,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>South-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51143594</v>
+        <v>208566543</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'new': '+14940', 'active': 100996, 'critical': 2578, 'recovered': 1417316, '1M_pop': '30498', 'total': 1559766}</t>
+          <t>{'new': '+784', 'active': 11253, 'critical': 10, 'recovered': 70248, '1M_pop': '397', 'total': 82747}</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'new': '+280', '1M_pop': '811', 'total': 41454}</t>
+          <t>{'new': '+4', '1M_pop': '6', 'total': 1246}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'1M_pop': '151651', 'total': 7755989}</t>
+          <t>{'1M_pop': '4373', 'total': 912114}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>South-America</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Antigua-and-Barbuda</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33192054</v>
+        <v>98320</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'new': '+1719', 'active': 26625, 'critical': 1124, 'recovered': 940040, '1M_pop': '30248', 'total': 1003982}</t>
+          <t>{'new': '+1', 'active': 4, 'critical': 1, 'recovered': 146, '1M_pop': '1576', 'total': 155}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'new': '+44', '1M_pop': '1124', 'total': 37317}</t>
+          <t>{'new': None, '1M_pop': '51', 'total': 5}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'1M_pop': '163689', 'total': 5433168}</t>
+          <t>{'1M_pop': '60161', 'total': 5915}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -568,51 +568,51 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5802061</v>
+        <v>5802117</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'new': '+2992', 'active': 42774, 'critical': 98, 'recovered': 105425, '1M_pop': '25738', 'total': 149333}</t>
+          <t>{'new': '+1834', 'active': 41355, 'critical': 96, 'recovered': 108659, '1M_pop': '26054', 'total': 151167}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'new': '+20', '1M_pop': '195', 'total': 1134}</t>
+          <t>{'new': '+19', '1M_pop': '199', 'total': 1153}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'1M_pop': '1739695', 'total': 10093817}</t>
+          <t>{'1M_pop': '1748761', 'total': 10146516}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faeroe-Islands</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48953</v>
+        <v>56818</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'new': '+6', 'active': 41, 'critical': 2, 'recovered': 526, '1M_pop': '11583', 'total': 567}</t>
+          <t>{'new': '+1', 'active': 7, 'critical': None, 'recovered': 19, '1M_pop': '458', 'total': 26}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -622,177 +622,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'1M_pop': '3932262', 'total': 192496}</t>
+          <t>{'1M_pop': '274930', 'total': 15621}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56818</v>
+        <v>54338514</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'new': '+1', 'active': 7, 'critical': None, 'recovered': 19, '1M_pop': '458', 'total': 26}</t>
+          <t>{'new': '+130', 'active': 17190, 'critical': 38, 'recovered': 76998, '1M_pop': '1764', 'total': 95843}</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': None, 'total': None}</t>
+          <t>{'new': '+2', '1M_pop': '30', 'total': 1655}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'1M_pop': '274930', 'total': 15621}</t>
+          <t>{'1M_pop': '18987', 'total': 1031721}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37120661</v>
+        <v>8685299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'new': '+2650', 'active': 30006, 'critical': 896, 'recovered': 388728, '1M_pop': '11472', 'total': 425864}</t>
+          <t>{'new': None, 'active': 109506, 'critical': 429, 'recovered': 311500, '1M_pop': '49301', 'total': 428197}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'new': '+44', '1M_pop': '192', 'total': 7130}</t>
+          <t>{'new': '+32', '1M_pop': '828', 'total': 7191}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'1M_pop': '117305', 'total': 4354454}</t>
+          <t>{'1M_pop': '400294', 'total': 3476677}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4300829</v>
+        <v>4869451</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'new': '+260', 'active': 3221, 'critical': 39, 'recovered': 145130, '1M_pop': '34709', 'total': 149277}</t>
+          <t>{'new': '+12', 'active': 2961, 'critical': 2, 'recovered': 1924, '1M_pop': '1016', 'total': 4948}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '215', 'total': 926}</t>
+          <t>{'new': None, '1M_pop': '13', 'total': 63}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'1M_pop': '288115', 'total': 1239132}</t>
+          <t>{'1M_pop': '6718', 'total': 32711}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4869451</v>
+        <v>2079077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'new': '+12', 'active': 2961, 'critical': 2, 'recovered': 1924, '1M_pop': '1016', 'total': 4948}</t>
+          <t>{'new': '+365', 'active': 18666, 'critical': 208, 'recovered': 92986, '1M_pop': '54921', 'total': 114184}</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '13', 'total': 63}</t>
+          <t>{'new': '+25', '1M_pop': '1218', 'total': 2532}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'1M_pop': '6718', 'total': 32711}</t>
+          <t>{'1M_pop': '314287', 'total': 653427}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -804,355 +804,355 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10129642</v>
+        <v>6922961</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'new': None, 'active': None, 'critical': 302, 'recovered': None, '1M_pop': '39098', 'total': 396048}</t>
+          <t>{'new': '+257', 'active': 80976, 'critical': 512, 'recovered': 108866, '1M_pop': '28444', 'total': 196915}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '817', 'total': 8279}</t>
+          <t>{'new': '+50', '1M_pop': '1022', 'total': 7073}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'1M_pop': '393836', 'total': 3989420}</t>
+          <t>{'1M_pop': '162481', 'total': 1124847}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2079076</v>
+        <v>20528525</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'new': '+1783', 'active': 19356, 'critical': 201, 'recovered': 91952, '1M_pop': '54743', 'total': 113815}</t>
+          <t>{'new': None, 'active': 2217, 'critical': None, 'recovered': 4026, '1M_pop': '316', 'total': 6488}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'new': '+28', '1M_pop': '1206', 'total': 2507}</t>
+          <t>{'new': None, '1M_pop': '12', 'total': 245}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'1M_pop': '313645', 'total': 652091}</t>
+          <t>{'1M_pop': '6491', 'total': 133247}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18627830</v>
+        <v>6662188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'new': '+337', 'active': 1063, 'critical': None, 'recovered': 18127, '1M_pop': '1051', 'total': 19571}</t>
+          <t>{'new': '+53', 'active': 1602, 'critical': None, 'recovered': 4225, '1M_pop': '899', 'total': 5991}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '20', 'total': 381}</t>
+          <t>{'new': '+1', '1M_pop': '25', 'total': 164}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'1M_pop': '29665', 'total': 552588}</t>
+          <t>{'1M_pop': None, 'total': None}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6662188</v>
+        <v>103255938</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'new': '+53', 'active': 1602, 'critical': None, 'recovered': 4225, '1M_pop': '899', 'total': 5991}</t>
+          <t>{'new': '+1133', 'active': 13832, 'critical': 90, 'recovered': 108985, '1M_pop': '1260', 'total': 130126}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'new': '+1', '1M_pop': '25', 'total': 164}</t>
+          <t>{'new': '+49', '1M_pop': '71', 'total': 7309}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'1M_pop': None, 'total': None}</t>
+          <t>{'1M_pop': '9685', 'total': 1000000}</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>South-America</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>South-Sudan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11256397</v>
+        <v>3479549</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'new': None, 'active': 275, 'critical': 1, 'recovered': 3118, '1M_pop': '307', 'total': 3455}</t>
+          <t>{'new': '+391', 'active': 5226, 'critical': 62, 'recovered': 10479, '1M_pop': '4555', 'total': 15848}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '6', 'total': 62}</t>
+          <t>{'new': '+8', '1M_pop': '41', 'total': 143}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'1M_pop': '6509', 'total': 73265}</t>
+          <t>{'1M_pop': '173308', 'total': 603034}</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12272980</v>
+        <v>97762528</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'new': '+38', 'active': 100, 'critical': None, 'recovered': 3061, '1M_pop': '261', 'total': 3205}</t>
+          <t>{'new': '+1', 'active': 102, 'critical': None, 'recovered': 1303, '1M_pop': '15', 'total': 1440}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '4', 'total': 44}</t>
+          <t>{'new': None, '1M_pop': '0.4', 'total': 35}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'1M_pop': '30943', 'total': 379760}</t>
+          <t>{'1M_pop': '14644', 'total': 1431631}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>South-Sudan</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4347282</v>
+        <v>11256397</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'new': '+3413', 'active': 39914, 'critical': 187, 'recovered': 180045, '1M_pop': '51451', 'total': 223674}</t>
+          <t>{'new': None, 'active': 275, 'critical': 1, 'recovered': 3118, '1M_pop': '307', 'total': 3455}</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'new': '+51', '1M_pop': '855', 'total': 3715}</t>
+          <t>{'new': None, '1M_pop': '6', 'total': 62}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'1M_pop': '280891', 'total': 1221114}</t>
+          <t>{'1M_pop': '6509', 'total': 73265}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54585683</v>
+        <v>12272980</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'new': '+758', 'active': 17054, 'critical': None, 'recovered': 100940, '1M_pop': '2208', 'total': 120546}</t>
+          <t>{'new': '+38', 'active': 100, 'critical': None, 'recovered': 3061, '1M_pop': '261', 'total': 3205}</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'new': '+20', '1M_pop': '47', 'total': 2552}</t>
+          <t>{'new': None, '1M_pop': '4', 'total': 44}</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'1M_pop': '31204', 'total': 1703287}</t>
+          <t>{'1M_pop': '30943', 'total': 379760}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>28019143</v>
+        <v>9640197</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'new': '+46', 'active': 226, 'critical': 16, 'recovered': 17147, '1M_pop': '629', 'total': 17633}</t>
+          <t>{'new': '+34', 'active': 425, 'critical': None, 'recovered': 12657, '1M_pop': '1366', 'total': 13172}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'new': '+1', '1M_pop': '9', 'total': 260}</t>
+          <t>{'new': '+1', '1M_pop': '9', 'total': 90}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'1M_pop': '3511', 'total': 98369}</t>
+          <t>{'1M_pop': None, 'total': None}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -1164,155 +1164,155 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>54335270</v>
+        <v>28019143</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'new': '+282', 'active': 17249, 'critical': 37, 'recovered': 76811, '1M_pop': '1762', 'total': 95713}</t>
+          <t>{'new': '+46', 'active': 226, 'critical': 16, 'recovered': 17147, '1M_pop': '629', 'total': 17633}</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'new': '+1', '1M_pop': '30', 'total': 1653}</t>
+          <t>{'new': '+1', '1M_pop': '9', 'total': 260}</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'1M_pop': '18952', 'total': 1029748}</t>
+          <t>{'1M_pop': '3511', 'total': 98369}</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9639610</v>
+        <v>994924</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'new': '+32', 'active': 431, 'critical': None, 'recovered': 12618, '1M_pop': '1363', 'total': 13138}</t>
+          <t>{'new': '+1', 'active': 45, 'critical': None, 'recovered': 5699, '1M_pop': '5835', 'total': 5805}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '9', 'total': 89}</t>
+          <t>{'new': None, '1M_pop': '61', 'total': 61}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'1M_pop': None, 'total': None}</t>
+          <t>{'1M_pop': '99523', 'total': 99018}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Solomon-Islands</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6922961</v>
+        <v>693918</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'new': '+772', 'active': 81955, 'critical': 521, 'recovered': 107680, '1M_pop': '28407', 'total': 196658}</t>
+          <t>{'new': None, 'active': 12, 'critical': None, 'recovered': 5, '1M_pop': '24', 'total': 17}</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'new': '+45', '1M_pop': '1014', 'total': 7023}</t>
+          <t>{'new': None, '1M_pop': None, 'total': None}</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'1M_pop': '162181', 'total': 1122775}</t>
+          <t>{'1M_pop': '6485', 'total': 4500}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>South-America</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Solomon-Islands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>693918</v>
+        <v>213291894</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'new': None, 'active': 12, 'critical': None, 'recovered': 5, '1M_pop': '24', 'total': 17}</t>
+          <t>{'new': '+22967', 'active': 798710, 'critical': 8318, 'recovered': 6459335, '1M_pop': '34922', 'total': 7448560}</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': None, 'total': None}</t>
+          <t>{'new': '+483', '1M_pop': '893', 'total': 190515}</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'1M_pop': '6485', 'total': 4500}</t>
+          <t>{'1M_pop': '134089', 'total': 28600000}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -1347,772 +1347,772 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9197590</v>
+        <v>8720170</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'new': '+4713', 'active': 33338, 'critical': 527, 'recovered': 357867, '1M_pop': '42880', 'total': 394391}</t>
+          <t>{'new': '+3200', 'active': 288848, 'critical': 295, 'recovered': 31536, '1M_pop': '37083', 'total': 323367}</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>{'new': '+15', '1M_pop': '346', 'total': 3186}</t>
+          <t>{'new': '+52', '1M_pop': '342', 'total': 2983}</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{'1M_pop': '811687', 'total': 7465561}</t>
+          <t>{'1M_pop': '255888', 'total': 2231386}</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>South-America</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5168284</v>
+        <v>51145075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'new': '+54', 'active': 6358, 'critical': 36, 'recovered': 120441, '1M_pop': '24823', 'total': 128290}</t>
+          <t>{'new': '+14941', 'active': 102308, 'critical': 2578, 'recovered': 1430709, '1M_pop': '30789', 'total': 1574707}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '288', 'total': 1491}</t>
+          <t>{'new': '+236', '1M_pop': '815', 'total': 41690}</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'1M_pop': '110573', 'total': 571472}</t>
+          <t>{'1M_pop': '152559', 'total': 7802635}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>South-America</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9980007</v>
+        <v>45396500</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'new': '+448', 'active': 60176, 'critical': 130, 'recovered': 54806, '1M_pop': '11827', 'total': 118036}</t>
+          <t>{'new': '+2874', 'active': 147855, 'critical': 3390, 'recovered': 1384277, '1M_pop': '34684', 'total': 1574554}</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>{'new': '+8', '1M_pop': '306', 'total': 3054}</t>
+          <t>{'new': '+30', '1M_pop': '934', 'total': 42422}</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'1M_pop': '29554', 'total': 294953}</t>
+          <t>{'1M_pop': '101284', 'total': 4597960}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>South-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>South-Africa</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7174598</v>
+        <v>59669618</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'new': '+958', 'active': 25666, 'critical': 179, 'recovered': 75509, '1M_pop': '14402', 'total': 103329}</t>
+          <t>{'new': '+14796', 'active': 126832, 'critical': 546, 'recovered': 830251, '1M_pop': '16480', 'total': 983359}</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>{'new': '+16', '1M_pop': '300', 'total': 2154}</t>
+          <t>{'new': '+293', '1M_pop': '440', 'total': 26276}</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'1M_pop': '75329', 'total': 540457}</t>
+          <t>{'1M_pop': '106889', 'total': 6378007}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1729422</v>
+        <v>2967446</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'new': '+253', 'active': 1757, 'critical': 13, 'recovered': 88963, '1M_pop': '52659', 'total': 91070}</t>
+          <t>{'new': '+87', 'active': 2509, 'critical': 8, 'recovered': 9881, '1M_pop': '4274', 'total': 12684}</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '202', 'total': 350}</t>
+          <t>{'new': None, '1M_pop': '99', 'total': 294}</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{'1M_pop': '1330346', 'total': 2300729}</t>
+          <t>{'1M_pop': '46068', 'total': 136703}</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>46423078</v>
+        <v>10129813</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'new': '+446', 'active': 22210, 'critical': None, 'recovered': 10905, '1M_pop': '719', 'total': 33360}</t>
+          <t>{'new': None, 'active': None, 'critical': 302, 'recovered': None, '1M_pop': '39097', 'total': 396048}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '5', 'total': 245}</t>
+          <t>{'new': None, '1M_pop': '817', 'total': 8279}</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{'1M_pop': '15729', 'total': 730193}</t>
+          <t>{'1M_pop': '393830', 'total': 3989420}</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15067</v>
+        <v>18629242</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'new': '+1', 'active': 1, 'critical': None, 'recovered': 10, '1M_pop': '730', 'total': 11}</t>
+          <t>{'new': '+100', 'active': 1089, 'critical': None, 'recovered': 18200, '1M_pop': '1056', 'total': 19671}</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': None, 'total': None}</t>
+          <t>{'new': '+1', '1M_pop': '21', 'total': 382}</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'1M_pop': '312803', 'total': 4713}</t>
+          <t>{'1M_pop': '29925', 'total': 557472}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>77325</v>
+        <v>126287357</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'new': '+30', 'active': 445, 'critical': 15, 'recovered': 7171, '1M_pop': '99567', 'total': 7699}</t>
+          <t>{'new': '+3567', 'active': 30204, 'critical': 654, 'recovered': 180188, '1M_pop': '1691', 'total': 213547}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>{'new': '+1', '1M_pop': '1073', 'total': 83}</t>
+          <t>{'new': '+50', '1M_pop': '25', 'total': 3155}</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{'1M_pop': '2328975', 'total': 180088}</t>
+          <t>{'1M_pop': '37031', 'total': 4676504}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>630851</v>
+        <v>18074753</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'new': '+262', 'active': 7436, 'critical': 39, 'recovered': 37574, '1M_pop': '72079', 'total': 45471}</t>
+          <t>{'new': '+91', 'active': 6515, 'critical': 5, 'recovered': 123893, '1M_pop': '7478', 'total': 135171}</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>{'new': '+3', '1M_pop': '731', 'total': 461}</t>
+          <t>{'new': '+6', '1M_pop': '264', 'total': 4763}</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'1M_pop': '2596686', 'total': 1638122}</t>
+          <t>{'1M_pop': '34508', 'total': 623719}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>French-Polynesia</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>281692</v>
+        <v>62166</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'new': '+84', 'active': 11600, 'critical': 21, 'recovered': 4842, '1M_pop': '58752', 'total': 16550}</t>
+          <t>{'new': '+1', 'active': 214, 'critical': 4, 'recovered': 338, '1M_pop': '9024', 'total': 561}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'new': '+1', '1M_pop': '383', 'total': 108}</t>
+          <t>{'new': None, '1M_pop': '145', 'total': 9}</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{'1M_pop': '93560', 'total': 26355}</t>
+          <t>{'1M_pop': '2173021', 'total': 135088}</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Costa-Rica</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>545094</v>
+        <v>5116633</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'new': '+21', 'active': 499, 'critical': 39, 'recovered': 13011, '1M_pop': '24873', 'total': 13558}</t>
+          <t>{'new': None, 'active': 32062, 'critical': 228, 'recovered': 128842, '1M_pop': '31855', 'total': 162990}</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '88', 'total': 48}</t>
+          <t>{'new': None, '1M_pop': '408', 'total': 2086}</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{'1M_pop': '549388', 'total': 299468}</t>
+          <t>{'1M_pop': '92901', 'total': 475338}</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>South-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>French-Guiana</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>302356</v>
+        <v>90855875</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'new': '+138', 'active': 2619, 'critical': 5, 'recovered': 9995, '1M_pop': '41954', 'total': 12685}</t>
+          <t>{'new': '+291', 'active': 2208, 'critical': None, 'recovered': 13982, '1M_pop': '185', 'total': 16763}</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '235', 'total': 71}</t>
+          <t>{'new': None, '1M_pop': '6', 'total': 573}</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'1M_pop': '336160', 'total': 101640}</t>
+          <t>{'1M_pop': None, 'total': None}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>62166</v>
+        <v>4301001</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'new': '+1', 'active': 214, 'critical': 4, 'recovered': 338, '1M_pop': '9024', 'total': 561}</t>
+          <t>{'new': '+260', 'active': 3221, 'critical': 39, 'recovered': 145130, '1M_pop': '34708', 'total': 149277}</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '145', 'total': 9}</t>
+          <t>{'new': None, '1M_pop': '215', 'total': 926}</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'1M_pop': '2173021', 'total': 135088}</t>
+          <t>{'1M_pop': '288103', 'total': 1239132}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cabo-Verde</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>558889</v>
+        <v>5168640</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'new': '+20', 'active': 210, 'critical': 23, 'recovered': 11366, '1M_pop': '20913', 'total': 11688}</t>
+          <t>{'new': None, 'active': 6358, 'critical': 36, 'recovered': 120441, '1M_pop': '24821', 'total': 128290}</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '200', 'total': 112}</t>
+          <t>{'new': None, '1M_pop': '288', 'total': 1491}</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'1M_pop': '192913', 'total': 107817}</t>
+          <t>{'1M_pop': '110565', 'total': 571472}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17702690</v>
+        <v>10182189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'new': '+130', 'active': 5052, 'critical': None, 'recovered': 4997, '1M_pop': '604', 'total': 10701}</t>
+          <t>{'new': '+1214', 'active': 69769, 'critical': 513, 'recovered': 316671, '1M_pop': '38596', 'total': 392996}</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'new': '+11', '1M_pop': '37', 'total': 652}</t>
+          <t>{'new': '+78', '1M_pop': '644', 'total': 6556}</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>{'1M_pop': None, 'total': None}</t>
+          <t>{'1M_pop': '522809', 'total': 5323341}</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>San-Marino</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>401076</v>
+        <v>33966</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'new': '+120', 'active': 1181, 'critical': 3, 'recovered': 9081, '1M_pop': '26155', 'total': 10490}</t>
+          <t>{'new': '+23', 'active': 312, 'critical': 9, 'recovered': 1863, '1M_pop': '65683', 'total': 2231}</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'new': '+2', '1M_pop': '568', 'total': 228}</t>
+          <t>{'new': None, '1M_pop': '1649', 'total': 56}</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>{'1M_pop': '143536', 'total': 57569}</t>
+          <t>{'1M_pop': '724548', 'total': 24610}</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>126288410</v>
+        <v>10398156</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'new': '+3841', 'active': 29082, 'critical': 644, 'recovered': 177793, '1M_pop': '1663', 'total': 209980}</t>
+          <t>{'new': '+262', 'active': 120572, 'critical': 473, 'recovered': 9989, '1M_pop': '12994', 'total': 135114}</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'new': '+55', '1M_pop': '25', 'total': 3105}</t>
+          <t>{'new': '+46', '1M_pop': '438', 'total': 4553}</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'1M_pop': '36535', 'total': 4613939}</t>
+          <t>{'1M_pop': '314492', 'total': 3270139}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>South-America</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>275944</v>
+        <v>7174838</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'new': None, 'active': 2749, 'critical': 4, 'recovered': 2964, '1M_pop': '20899', 'total': 5767}</t>
+          <t>{'new': '+559', 'active': 26225, 'critical': 179, 'recovered': 75509, '1M_pop': '14479', 'total': 103888}</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '196', 'total': 54}</t>
+          <t>{'new': None, '1M_pop': '300', 'total': 2154}</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'1M_pop': '123630', 'total': 34115}</t>
+          <t>{'1M_pop': '75872', 'total': 544368}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>San-Marino</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33966</v>
+        <v>6916355</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'new': '+23', 'active': 312, 'critical': 9, 'recovered': 1863, '1M_pop': '65683', 'total': 2231}</t>
+          <t>{'new': '+461', 'active': 27949, 'critical': None, 'recovered': 68289, '1M_pop': '14119', 'total': 97653}</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '1649', 'total': 56}</t>
+          <t>{'new': '+16', '1M_pop': '205', 'total': 1415}</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'1M_pop': '724548', 'total': 24610}</t>
+          <t>{'1M_pop': '76303', 'total': 527741}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2124,75 +2124,75 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Saint-Martin</t>
+          <t>Cayman-Islands</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38981</v>
+        <v>66093</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'new': None, 'active': 94, 'critical': 7, 'recovered': 855, '1M_pop': '24653', 'total': 961}</t>
+          <t>{'new': '+1', 'active': 26, 'critical': 1, 'recovered': 290, '1M_pop': '4811', 'total': 318}</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '308', 'total': 12}</t>
+          <t>{'new': None, '1M_pop': '30', 'total': 2}</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{'1M_pop': '286960', 'total': 11186}</t>
+          <t>{'1M_pop': '897811', 'total': 59339}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>39376</v>
+        <v>1729585</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'new': '+16', 'active': 121, 'critical': 2, 'recovered': 659, '1M_pop': '19885', 'total': 783}</t>
+          <t>{'new': '+234', 'active': 1801, 'critical': 13, 'recovered': 89152, '1M_pop': '52790', 'total': 91304}</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '76', 'total': 3}</t>
+          <t>{'new': '+1', '1M_pop': '203', 'total': 351}</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{'1M_pop': '1319408', 'total': 51953}</t>
+          <t>{'1M_pop': '1335405', 'total': 2309696}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2204,235 +2204,235 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cayman-Islands</t>
+          <t>St-Barth</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>66093</v>
+        <v>9892</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'new': '+1', 'active': 26, 'critical': 1, 'recovered': 290, '1M_pop': '4811', 'total': 318}</t>
+          <t>{'new': None, 'active': 11, 'critical': None, 'recovered': 172, '1M_pop': '18601', 'total': 184}</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '30', 'total': 2}</t>
+          <t>{'new': None, '1M_pop': '101', 'total': 1}</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'1M_pop': '897811', 'total': 59339}</t>
+          <t>{'1M_pop': '861100', 'total': 8518}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>South-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>19195210</v>
+        <v>98634</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'new': '+2521', 'active': 14471, 'critical': 678, 'recovered': 565002, '1M_pop': '31041', 'total': 595831}</t>
+          <t>{'new': '+3', 'active': 21, 'critical': None, 'recovered': 184, '1M_pop': '2078', 'total': 205}</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>{'new': '+55', '1M_pop': '852', 'total': 16358}</t>
+          <t>{'new': None, '1M_pop': None, 'total': None}</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'1M_pop': '326192', 'total': 6261315}</t>
+          <t>{'1M_pop': '52720', 'total': 5200}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>St-Barth</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9892</v>
+        <v>10252129</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'new': None, 'active': 11, 'critical': None, 'recovered': 172, '1M_pop': '18601', 'total': 184}</t>
+          <t>{'new': '+1050', 'active': 23976, 'critical': 292, 'recovered': 258651, '1M_pop': '27931', 'total': 286356}</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '101', 'total': 1}</t>
+          <t>{'new': '+18', '1M_pop': '364', 'total': 3729}</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'1M_pop': '861100', 'total': 8518}</t>
+          <t>{'1M_pop': '299283', 'total': 3068292}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>North-America</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Dominican-Republic</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10251853</v>
+        <v>10900525</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'new': '+1616', 'active': 25283, 'critical': 282, 'recovered': 256312, '1M_pop': '27830', 'total': 285306}</t>
+          <t>{'new': '+905', 'active': 35670, 'critical': 233, 'recovered': 127866, '1M_pop': '15223', 'total': 165940}</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>{'new': '+30', '1M_pop': '362', 'total': 3711}</t>
+          <t>{'new': None, '1M_pop': '221', 'total': 2404}</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{'1M_pop': '298206', 'total': 3057169}</t>
+          <t>{'1M_pop': '78257', 'total': 853047}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dominican-Republic</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10900228</v>
+        <v>46427044</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'new': '+1381', 'active': 35525, 'critical': 242, 'recovered': 127106, '1M_pop': '15141', 'total': 165035}</t>
+          <t>{'new': '+203', 'active': 22263, 'critical': None, 'recovered': 11055, '1M_pop': '723', 'total': 33563}</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': '221', 'total': 2404}</t>
+          <t>{'new': None, '1M_pop': '5', 'total': 245}</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>{'1M_pop': '77988', 'total': 850082}</t>
+          <t>{'1M_pop': '15774', 'total': 732329}</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>North-America</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>French-Polynesia</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>18073846</v>
+        <v>281696</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'new': '+186', 'active': 6978, 'critical': 5, 'recovered': 123345, '1M_pop': '7474', 'total': 135080}</t>
+          <t>{'new': None, 'active': 11600, 'critical': 21, 'recovered': 4842, '1M_pop': '58751', 'total': 16550}</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>{'new': '+8', '1M_pop': '263', 'total': 4757}</t>
+          <t>{'new': None, '1M_pop': '383', 'total': 108}</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'1M_pop': '34487', 'total': 623321}</t>
+          <t>{'1M_pop': '93558', 'total': 26355}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
@@ -2444,35 +2444,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>98634</v>
+        <v>4707972</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'new': '+3', 'active': 21, 'critical': None, 'recovered': 184, '1M_pop': '2078', 'total': 205}</t>
+          <t>{'new': '+146', 'active': 3163, 'critical': 60, 'recovered': 9787, '1M_pop': '2817', 'total': 13264}</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>{'new': None, '1M_pop': None, 'total': None}</t>
+          <t>{'new': '+13', '1M_pop': '67', 'total': 314}</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'1M_pop': '52720', 'total': 5200}</t>
+          <t>{'1M_pop': '26154', 'total': 123133}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-26</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-12-25T17:45:05+00:00</t>
+          <t>2020-12-26T18:30:06+00:00</t>
         </is>
       </c>
     </row>
